--- a/data/hotels_by_city/Dallas/Dallas_shard_353.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_353.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="619">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Michel W</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>DLW3555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r555972595-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Bill W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r555667477-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>If you don't mind the third floor smelling like marijuana and the staff refusing to do anything about it, this place is for you. As my wife and I got off the elevator onto the third floor, the odor of marijuana was so strong I thought someone was smoking it in the hallway. I called down and told the front desk and they told me they knew about it, but didn't know what room it was coming from. A couple of hours later, with the smell still strong, I went down and asked again at the front desk what had been done. She told me she'd been up there twice and couldn't find the source. I asked if she'd called the police she said she hadn't because it would cost them money. Only after offering to call the police for her, she called the GM. She then went door to door to see if she could determine where it was coming from. No luck because no one answered the doors. After about 3 hours, someone came up and opened a window and used air freshener.More</t>
   </si>
   <si>
+    <t>khicks4264</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r550847806-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>Fantastic Facility &amp; Staff!  I've traveled as a Pastor w/ Youth Groups and Church Teams as well as a Coach w/ Basketball teams for 25 years, and this hotel and staff are Top Notch!  In fact, I'd go so far as to say I've never had a better experience.Mark is the most personal and attentive GM we have encountered, and this is our 2nd year in a row to stay at their facility.  He's present during breakfast and making sure the guest is well taken care of throughout their stay.Malekah serves with an amazing team w/ Group reservations and they have taken care of not only our team, but all our parents for the last two years.  Breakfast is fantastic (and we were feeding hungry teen-age boys).Beds are incredible (and we had guys playing basketball in a tournament who desperately needed rest).Service is #1!If you're in the area and in need of a hotel, you won't be sorry if you stay here!More</t>
   </si>
   <si>
+    <t>postie94</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r539195119-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>We stayed here for a leisure trip. I leave a review based on my honest experience so I will be blunt if I have to. That being said, I found this hotel to be very comfortable. The lobby was very modern and clean. Friendly check-in. The room was spacious and clean and updated. The bathroom was clean and newer as well but was starting to look a tad shabby... not enough to make me hesitate staying again though. The air condition was the old style (large unit close to the floor and controlled from unit itself)... it seemed it couldn't make up its mind whether to run or not. We were not uncomfortable in any way... but It kept kicking on and off every 2 minutes which got a little annoying. Breakfast was your typical run of the mill continental breakfast. Hot scrambled eggs and sausage, cereal, toast/bagel, muffins etc.Was 93 degrees so a pool would have been nice but being its November (even in Texas) I can see why it was closed for the season. Location was very close to many restaurants and shopping, Frisco, and main Plano area. a few minute drive. about a 15 minute drive to downtown Dallas. very manageable for having a quiet hotel to stay in.More</t>
   </si>
   <si>
+    <t>Loretta W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r533794007-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Plano T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r503287975-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>The front desk manager of this Holiday Inn Express cancelled my reservation less than 24 hours before check in time.  He they were overbooked.  He offered no explanation of why my reservation was the one singled out to be cancelled.  He offered to book me at another Holiday Inn Express in Dallas miles from my destination in Plano, Texas and in an unsafe part of town. I have been an IHG member for many years and have never had this happen before.  I used reward points and cash for this reservation and I believe this is why they cancelled.More</t>
   </si>
   <si>
+    <t>David H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r478197325-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -339,6 +363,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>jdmiller345</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r465093346-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -378,6 +405,9 @@
     <t>This Holiday Inn seemed different from the others that I have stayed in. The decor is very pleasant just unusual to my taste. The staff was extremely helpful and efficient with a friendly smile. My room was on the third floor  and extremely quiet . Unusual because it is so near the expressway and just across the street from a medical complex. There was a refrigerator  and coffee station but no microwave . Tiny overhead reading light over chair and each side of the bed. The bed and pillows were so comfortable I did not want to get up. I wish I had asked if I could buy one of the pillows. The breakfast was what has become the norm in most hotels. The only difference was the room itself. I was amazed at the dim lights and red decor. That room could do double duty as a cocktail lounge. Interesting.More</t>
   </si>
   <si>
+    <t>moderncamper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r366154841-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -396,6 +426,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>RiuChainFan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r364501734-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -423,6 +456,9 @@
     <t>I was very disappointed with the quality of the place. The door locks hardly work with the cards and the AC sounded like a generator. There is also a general bad smell in the hotel may be from the AC. However the breakfast is good and the employees and internet are great. More</t>
   </si>
   <si>
+    <t>April  L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r359542160-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -450,6 +486,9 @@
     <t>Bed broken, mold  in shower . Manger very  rude . This  hotel  appears to be nice from the lobby  but it's old and needs attention.  I work for  holiday Inn  and the manager  feels like since   I'm a employee  in a different  sate that it's okay to give me and  my family  the worst  room. He refused to  refund  my money  even though I  didn't  stay  a second night.  I was charged  double for one night.   Unacceptable  !!!!  Management needs training. More</t>
   </si>
   <si>
+    <t>Glenn P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r349644992-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -471,6 +510,9 @@
     <t>I stayed here for 4 nights whilst on a business trip and even though the hotel was undergoing some renevation work I found it clean and conmfortable. My room was a good size, the bed was comfortable, the bathroom clean. The surrounding area is very quiet even though the hotel is situated on a major road. I found the staff to be very friendly and accommodating. Unfortunately the hotel does not have a bar or restaurant to enjoy dinner - or if it did, I didn't find it !! The breakfast had a good variety of cereals, bread, fruit and yoghurts etc. I had a comfortable and enjoyable stay and if in the area on business again I would definetely stay there again.More</t>
   </si>
   <si>
+    <t>Jennifer K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r343768134-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -498,6 +540,9 @@
     <t>Here to see family and this was one of the suggested hotels.  The ratings were decent online, but after getting here, I think they were misleading.Rocky breakfast tables, cheap pillows, stiff bed, stained furniture, rotten fruit...Will not stay here again!More</t>
   </si>
   <si>
+    <t>Gerry L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r343209678-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -516,6 +561,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>PhoenisSunDog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r331798979-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -540,6 +588,9 @@
     <t>This hotel is close to most businesses not in downtown. Right off freeway. Room was large with a fridge, microwave, and coffee maker. Hat sitting area with table. Was clean and newer looking. Breakfast was the usual HIE spread. Dinning area had a 70s retro fee. Staff was friendly. More</t>
   </si>
   <si>
+    <t>RUTH E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r322707314-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -561,6 +612,9 @@
     <t>I hope I am reviewing the correct location - we have stayed at so many hotels during my daughter's softball years but this one was very recent.  Our phone GBS did not get us there easily, but it was immediately off the expressway.  The outside brick architecture reminded me of a much older hotel and the interior was somewhat like a gentleman's club with pretty fabric drapes and lighting.  However, felt very safe in the location and the room was extremely comfortable.  It had easy access to restaurants and shopping, plus was not far from the ball fields.More</t>
   </si>
   <si>
+    <t>BeachyBoots</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r313662423-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -588,6 +642,9 @@
     <t>My company gets a corporate rate here. So I have to stay here. I stayed here once and it has gotten worse. Toilet handle broken. Rugs dirty. Bathroom shower curtain broken. Sink and bathtub rusted. Mattress very saggy and old. Scrapes and marks on the walls and door. Needs a SERIOUS makeover. Showing its age. The red and purple "space" theme needs to be replaced with more neutral colors. Looks like a scene out of a bad sci-fi movie. I know the signs said they were remodeling...but didn't see any indication of that. More</t>
   </si>
   <si>
+    <t>Anders L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r311827541-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -612,6 +669,9 @@
     <t>The Holiday Inn is conveniantly located to a large mall, restaurants etc. It is fairly new so it it still in good shape. It offers breakfast with the basic essentials like cerials, bread, bacon, scrambled eggs and more. Serving on plastic for all items, I guess for efficiency but leaves alot of waste.A small gym is also offered with 5 stations.More</t>
   </si>
   <si>
+    <t>Steve H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r298481325-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -639,6 +699,9 @@
     <t>The Holiday Inn Express model works really well for some people, and this hotel us typical of the chain. The rooms are reasonably large, the beds comfortable, the A/C works well with the timer, and overall, it's fine. There is nothing to stand out either good or bad.The staff are friendly, and the three floors mean you can choose your preference. Higher floors are quieter, and they seem to fill the first floor first.The breakfast is typical carton scrambled eggs, sausage gravy, cereal, pancakes, etc. Not the healthy options I seek, but, again, typical. There are decent restaurants nearby, though, like the Le Peep a couple of blocks away for breakfast and the Bone Daddy's for BBQ or Chuy's for TexMex.More</t>
   </si>
   <si>
+    <t>266travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r294965328-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -663,6 +726,9 @@
     <t>We stayed the night after a late Rangers/SF Giants baseball game. The game went into extra innings so we were happy to find this hotel right off the interstate. The front desk clerk was so nice! We appreciated how friendly and welcoming she was, considering it was almost midnight! Our room  was clean, parking was adequate, and breakfast was good (Holiday Inn breakfast usually is). We will definitely stay here again. More</t>
   </si>
   <si>
+    <t>nanax6604</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r288270805-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -690,6 +756,9 @@
     <t>checked into the Holiday Inn Express at 3101 Nth Dallas Parkway/Plano Texas,#1. No Bath Soap in bathroom, there was a used bar left in the soap dish.#2. Employees outside door smoking, both times we returned to the motel#3. Stool didn't flush well, because there was a nasty bar of soap in the stool.#4. there was rust all around the bathtub fixtures.#5. there was a lot of dust on the carpet against the window by the airconditioner#5. the tub was EXTREMELY SLICKMore</t>
   </si>
   <si>
+    <t>okie179</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r285927651-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -714,6 +783,9 @@
     <t>Pros:  hotel lobby smells clean, rooms were quiet, good access to city, decent breakfastCons:  hotel is starting to show its age.  Our particular room had rust on the tub and an area of the wall that was damaged, but it was ok for a couple of nights.More</t>
   </si>
   <si>
+    <t>hardette</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r274868201-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -732,6 +804,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Glenn G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r244754606-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -753,6 +828,9 @@
     <t>This was a very nice hotel and a good value.  We stayed for two days.  The staff were very helpful and they had a comfortable bed(s) with nice pillows allowing for a good nights sleep.  The breakfast bar had a really nice selection of both hot and cold foods and was not done on the cheap.  I had biscuits, gravy, sausage, and eggs.  My wife had yogurt and oatmeal and my daughter had coffee and breakfast rolls.  This is located right off the North Dallas Toll way and just a few miles South of Frisco, Tx .  Easy on and off access to the property and a hospital just around the corner.  Will stay again.  It had a really nice work out room, but I did not use it.More</t>
   </si>
   <si>
+    <t>Amit_Haralalka</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r244703633-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -768,6 +846,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>KBD87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r243574905-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -783,6 +864,9 @@
     <t>we recently spent 2 nights here and had a nice, quiet stay. The hotel is clean and has a nice breakfast. The staff was friendly, the beds are comfortable and it's in a safe area. There are restaurants near but not within walking distance. The only odd thing is when we got in our room there was a sports coat hanging in the closet and there was beer left over from previous guest in the fridge. In all our travels I've never had that happen, especially since the room and hotel were very clean.</t>
   </si>
   <si>
+    <t>Don W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r238801190-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -801,6 +885,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>paymeami2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r236810972-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -825,6 +912,9 @@
     <t>I stayed for 5 days and can say the hotel was clean all the time. I was always seeing ladies cleaning all over and it smelled like it too. Breakfast has one of those pancake machines.The reason you would choose this hotel is basically because it it right near where you need to be. I think my Holiday Inn experiences have been ruined by my stay at Holiday Inn Harrisburg PA. The staff there was so top notch that now the other HI staffs seem inattentive and disheveled. The bed was comfortable. The air condition worked. Updates have been done in this hotel so it does not feel dated inside. I would stay here again but I would not if it was out of the way of my destination.  Was this review helpful? If so please click yes!More</t>
   </si>
   <si>
+    <t>FarNorthMinnesota</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r236752884-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -843,6 +933,9 @@
     <t>The location of this hotel was excellent. The room was clean, comfortable and appealing. The breakfast had lots of choices and the area was clean and roomy. The hotel staff was helpful. The pool area was clean .I would stay here again.More</t>
   </si>
   <si>
+    <t>awooten3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r236442644-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -861,6 +954,9 @@
     <t>Very nice and clean Holiday Inn Express. Has been updated almost everywhere. Not the best HIE in Dallas, but it's top tier. Stayed for business and will definitely stay here again when visiting this area of Dallas. More</t>
   </si>
   <si>
+    <t>breezyww</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r234567009-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -879,6 +975,9 @@
     <t>This hotel was easy to get to and the customer service was excellent.  Stayed here as a group, the group rate could've been better.  It looks like the hotel was renovated at some point and some of the upgrades are great (loved the pink and silver sconces), but others weren't done or done poorly.  In our bathroom the tub/shower and surround needed upgrading and there was a broken floor tile and some peeling paint.  Some minor handyman work and it would be perfect.  The beds and pillows were very comfortable and true queen size beds.  I would recommend to housekeeping to add some fabric softener to the sheets and towels, they were a bit stiff and scratchy.  The one elevator was loud, we joked it need some wd-40 on the doors.  All and all, we would stay here again.More</t>
   </si>
   <si>
+    <t>Colangelo22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r230415728-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -906,6 +1005,9 @@
     <t>I remembered this hotel as nice and clean in January, but my room now is dirty, musty smelling, and the toilet runs.  I was looking forward to a clean and comfortable night, but not tonight.  Disappointed because I can usually count on Holiday Inn Express!  More</t>
   </si>
   <si>
+    <t>Carol C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r215734710-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1032,9 @@
     <t>Price was fair, spacious room, great bed and good bathroom, good continental breakfast. poor cleaning though. But I'd stay there again. It is close to the malls, restaurants and easy access. Staff is helpfulMore</t>
   </si>
   <si>
+    <t>William H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r167213115-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -948,6 +1053,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Pli876</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r161147128-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1071,9 @@
     <t>Great, clean rooms.  Fancy lobby and breakfast area.  Super nice staff who were very friendly with my 4-year-old little girl.  Bath and Body Works Shampoo/Conditioner were a nice touch.  What's more..the hotel is located close to lots of shopping and restaurants in Plano.  Awesome!!Great stay!</t>
   </si>
   <si>
+    <t>Lillysma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r157736075-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1092,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>leahtots</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r154466621-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1113,9 @@
     <t>We checked in and all went well.  very polite and helpful front desk staff. We had had to call them when we were leaving the rent a car, because the new garmin could not find them.  They got us there with out any toll roads. Our up grade was wonderful.  Had a great night sleep.  even though we were on the first floor, we did not get any traffic noise.  That is a great thing.  We asked for a late check out, and house keeping did come knocking about 10:30.  I wish they would check up front and see who has a late check out and leave them alone.  Anyway great place to stay. A lot of restaurants around, so that was nice.More</t>
   </si>
   <si>
+    <t>barleymow56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r152587311-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1134,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>JanieT665</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r142207784-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1164,9 @@
     <t>The decor was pretty cool. Definitely something different than a standard hotel. We stayed 2 nights and housekeeping never left any towels for us. The breakfast in the morning was the worst. It was over at 10, but expect everything to be gone around 9:30.More</t>
   </si>
   <si>
+    <t>deacondawn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r140932781-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1194,9 @@
     <t>Pretty nice hotel,very clean.  Extremely friendly staff.  The decor of the hotel is a strange combination of art dec and 1920s movie studio.  And while decor is not one of my strengths, it was indeed noticeable.  Breakfast was standard for HIEx and the coffee was a bit substandard, but I do tend to be picky about coffee.  If you must be in Plano, this is a good plce to stay.More</t>
   </si>
   <si>
+    <t>JBloomin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r140513232-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1210,9 @@
   </si>
   <si>
     <t>We stayed for 3 nights while my husband was in Plano for work. The hotel is very quite and comfy. The rooms are spacious and decor is very tasteful. The room has a large desk, sitting chair with lamp, the king bed had 2 reading lights as wells as lamps on both side tables. The TV was awesome and there was planty of drawer and bathroom storage space. Very comfortable for 2 people. The service was very nice and not bothersome.</t>
+  </si>
+  <si>
+    <t>thedancingoboe</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r140372907-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
@@ -1108,6 +1237,9 @@
 Breakfast was good, the same as you get at any Holiday Inn Express. Good variety, not all starch. We got down half an hour before the end of breakfast and grabbed the last two cinnamon rolls, then they turned off the warmer. I don't know... is half an hour too early to put...My boyfriend and I had been on the road for four nights, I hadn't gotten sleep in five (stressing about packing up our apartment and driving across country). This hotel was so comfy and quiet, I got my first full night's sleep of the trip. I'd stayed at a Holiday Inn Express before, but it was nothing compared to this particular location. It was so fancy and new. The lobby is done in this simultaneously retro and modern design that is so awesome. They had the craziest lamps I've ever seen on the hallway walls. The dining room/meeting room was really lovely and well kept. Our room was very spacious and pristine, though they have this funny obsession with reading lamps. They were coming out of the headboard, even out of some of the lamps. It was a great amenity, especially if you have a family (my family always keeps me up with their lights when we're sharing a hotel room) but it was kind of funny... I wanted to ask the lamp "... is that a reading light, or are you just happy to see me?" Breakfast was good, the same as you get at any Holiday Inn Express. Good variety, not all starch. We got down half an hour before the end of breakfast and grabbed the last two cinnamon rolls, then they turned off the warmer. I don't know... is half an hour too early to put out a new tray of rolls? Maybe. We were just glad that we'd gotten some. I visited the little store they have to search for toothpaste. We'd accidentally left our toothpaste and tooth brushes in our old apartment in Boston, and finally got some toothpaste in Nashville (Our 3rd night! We were using Scope, but still...) but then we left it in New Orleans!! I was desperate for toothpaste, but I didn't see any. But the magical woman at the desk GAVE ME SOME for FREE and I almost kissed her. But I didn't. Because I hadn't brushed my teeth in what seemed like forever. She was an angel from abooooooooooooove!!! SHE WAS THE TOOTH FAIRY.You could tell this was a place for businessmen. It was blissfully quiet at night, and very sleek and clean. I felt really nice when I left. For the price, it was a steal in quality and comfort, and all the workers we met were friendly and helpful. If you have complaints here, you haven't experienced the surprises of other hotels on the road. A big thumb's up from me, and a beautiful clean smile as well.More</t>
   </si>
   <si>
+    <t>Mitch T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r138980245-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1133,6 +1265,9 @@
 When I disclosed that we will have our June meeting in Holiday Inn Express in Plano, I got teased a lot by those veterans, who are used to have meetings in four-to-five star hotels. "Man! HIE? Not even a Holiday Inn?" However, I had a relative small group of people from all over the world coming to Texas, and I wanted to provide them a good meeting experience without costing an arm and a leg.  I looked around and found hosting a meeting in a four-star or five-star hotels actually cost a lot.  Typical charges including meeting room usage (can sometimes be waived if you have booked a big room-block guaranteed), charges for projector and screen use, coffee and cookies (for coffee...My rating on this one is 3.8, by far the best in my series of reviews on Holiday Inn Express.  It just happened that I visited three HIE hotels recently (this one I did not stay but I hosted an international meeting for about 25-35 participants there and I did check on its rooms and facilities. The room quality is consistent with similar amenity (I think the tooth brushes are not in the room but you can get it from the front desk, if you forget to pack it.), deco (basic, not fancy ones), this one with a refrigerator, but the room size are bigger than the previous two I reviewed in China (In Texas, everything is BIG!). When I disclosed that we will have our June meeting in Holiday Inn Express in Plano, I got teased a lot by those veterans, who are used to have meetings in four-to-five star hotels. "Man! HIE? Not even a Holiday Inn?" However, I had a relative small group of people from all over the world coming to Texas, and I wanted to provide them a good meeting experience without costing an arm and a leg.  I looked around and found hosting a meeting in a four-star or five-star hotels actually cost a lot.  Typical charges including meeting room usage (can sometimes be waived if you have booked a big room-block guaranteed), charges for projector and screen use, coffee and cookies (for coffee breaks), audio systems (if used), and maybe service charges can add up to your overall cost quickly.  This may not be a problem if you have corporate sponsorship.  For us, the model is shared cost and I found these charges will add to the complexity on the travel expenses of the meeting attendees.The Management in HIE in Plano help me solve the problems.  The hotel offered us a good block rate and agreed to waive meeting room setup charges if the room nights requirement are filled. They can do coffee breaks and are flexible in arrangements. The front desk people and the Management are always available in case any problems occurred. We supplied projectors and the hotel can offer screens.  Two individual meeting rooms each can host seating comfortably for about 25 people in "open-U" setting and more if we use "classroom" setting.  There is also a Ballroom (yes, a Ballroom in HIE, which is a first to me) can accommodate about 200 people and can be divided into two 100 people rooms.The best part, to me, is that the Management and the support from the staff.  Their efforts did help our meeting ran well.We did experience some difficulty on Internet, but the Management indicated that they are upgrading their systems that week and promised it would get better.  They also get their local contractors to work with us to improve the condition after we reported problems.  Maybe some viewers can help check it out.  To be fair, I have to say our group, although not big, does hog the Internet with all the gears we used, and the Management team of the hotel may have not dealt such a big group of "geeks" before.Hot breakfast, even with pancakes, is included. The breakfast area is nice and clean and make the foyer area looks nice. Now I think about it, it is better than a "typical HIE" feeling.  The hotel is located by the US 75 but you need to turn into a side street before you can access to it.  Plenty of parking. There are also a dinner, a cafeteria, and a Chinese buffet near by.  Although there are many nice restaurants in Plano area, it is recommended that you have a car, as walking in the 100 degrees weather as we had in June can be brutal.  Moreover, it may not be dangerous to walk due to the traffic condition. Hotel staff can help you arrange taxis if you don't intend to drive.     After the week-long meeting, other than the complaints about Internet, I think most of the participants are happy with the value they received. Indeed, I'd never consider hosting an international meeting in HIE, if I had not stopped by and checked it out myself.More</t>
   </si>
   <si>
+    <t>Sam779</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r138721017-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1154,6 +1289,9 @@
     <t>I stayed at this hotel with family members for one night while a loved one had surgery at a nearby medical center.  Several things made this hotel stand out.  First we where given a decent rate because we where there visiting the nearby hospital.  Second the hotel had an elevator which made transporting our bulky and heavy stuff to the second floor a breaze.  Third the decore has been recently updated and the place looked nice, as did my room.  Fourth, the business center had working computers and a printer stocked with paper which made last minute items easy to print out.  The internet worked well there too.  Last, good cable TV.  Yes I like to watch TV and had many channels to choose from.  Two thumbs up for this place, I would stay there again.More</t>
   </si>
   <si>
+    <t>RichS14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r138151366-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1178,6 +1316,9 @@
     <t>Second stay, second time the internet  service has been down completely or very spotty .For the price it shouldn't be this bad.  If internet access isn't a priority for you then this hotel is OK. But for the business traveler I'd stay elsewhere. More</t>
   </si>
   <si>
+    <t>Ciao33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r137928163-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1196,6 +1337,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Alero01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r136507117-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1227,6 +1371,9 @@
   </si>
   <si>
     <t>My room was large with a great view, the bed was comfortable. Room very clean. Front desk staff EXCEPTIONAL and very helpful. This is an excellent hotel for the money and I will return to it any time I need a hotel in Plano, Texas.  Highly recommend this one!!!</t>
+  </si>
+  <si>
+    <t>Mark K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r135061457-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
@@ -1295,6 +1442,9 @@
     <t>The decore is a little odd for a HI express. Seemed almost like a NYLO. The hotel is modern and clean. My score is mainly from two items.AC units are loud and the internet might as well be dial up. I complained about the internet and was told it was probably because of all the people on it. Never had that happen at any other hotel as bad as this. As a business traveler I depend on the internet. I went to a Starbucks to get on line after two nights.More</t>
   </si>
   <si>
+    <t>Ginnie115</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r132994086-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1310,6 +1460,9 @@
     <t xml:space="preserve">General manager Christopher Dennis made sure that my stay was pleasant. He went above and beyond. </t>
   </si>
   <si>
+    <t>cook7166</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r128415060-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1328,6 +1481,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>TKelly26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r128181117-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1349,6 +1505,9 @@
     <t>I Love the new look they have, however, in our room you can see the areas on the wall where they patched the holes.  It looks a bit tacky.  But other than that the room is nice.  The beds were comfortable.  However, I wish they had "bigger" rooms for people traveling with children.  This is just not the Holiday Inn but other hotels as well.  Speaking of children we did get one complaint about our 1 and 3 year old crying.  I noticed that the guest are mostly business professionals. The buffet breakfast was just Eh!..average.  Our oldest son enjoyed it while the rest of us skipped it and just grabbed breakfast else where.More</t>
   </si>
   <si>
+    <t>SSSS10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r126366737-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1367,6 +1526,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>TxMarky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r125854481-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1382,6 +1544,9 @@
     <t xml:space="preserve">I stayed at this hotel twice. The entire hotel is decorated nicely and it looks very new. The rooms were spacious, clean and they have a special medical rate. A nice mall is a few blocks away and good restaurants are close by. </t>
   </si>
   <si>
+    <t>behka</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r124972042-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1397,6 +1562,9 @@
     <t>The hotel staff is very friendly, the hotel is VERY clean quiet and the beds are soooo comfortable. I will never stay anywhere else when I come to town!</t>
   </si>
   <si>
+    <t>Ilovepics</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r123922071-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1412,6 +1580,9 @@
     <t xml:space="preserve">We thought we got a suite but it ended up being a regular room. The hotel clerk immediately fixed the issue. They haven't upgraded their tv's to flat screens yet. That is a personal preference really. Overall, the room was clean, the staff friendly and the breakfast was plentiful. </t>
   </si>
   <si>
+    <t>kirstenpix</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r120346297-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1433,6 +1604,9 @@
     <t>Stayed here one night this past weekend. Front desk staff was warm and friendly. Hotel has very cool modern lighting. Room was very clean. For a 10-year old hotel, very little sign of wear and tear on the room. Hotel was not busy so it was a quiet night. Bed very comfortable with a selection of pillows. Free wi-fi was sometimes quite slow. Excellent rate. Breakfast was the usual Holiday Inn Express fare, but they did have a fresh pancake machine I'd never seen anywhere before. Don't drink the OJ; it tastes like Tang. And, you may want picante for your scrambled eggs as they are very bland.Be aware that your GPS may send you to the wrong location for this hotel. (It sent me to the mall.) The hotel is on the west side frontage road of the tollway between Chappel Hill and W Parker.More</t>
   </si>
   <si>
+    <t>southernfoodiegirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r119164986-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1454,6 +1628,9 @@
     <t>You get your normal expectations from a Holiday Inn Express with the comfy beds and such but with a more upgraded, swanky style. Love the lobby, breakfast area, and room decor. Staff has greeted me everytime I've walked in the door. Very close to customers that I visit in the area and close to everything that I could possibly need including a Super Target, mall shopping, and tons of eating places. I will be staying here in the future.Had a shuttle that will take you within 5 miles of the hotel anywhere. I didn't check out the business center but the fitness room has more of a selection of equipment than the normal 1-2 cardio machines. Had some weight type machines in there, also. And an outdoor pool.Only improvement would be to have a mini fridge hidden in the cabinet. Even if it's one of the uber small ones just to keep drinks/snacks in. Perhaps some of the other upgraded/suite type rooms have them. I have a normal king room.More</t>
   </si>
   <si>
+    <t>g8rb878</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r118026508-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1475,6 +1652,9 @@
     <t>We stayed here the night before we moved since all our stuff was in storage.  This was our first time at a Holiday Inn Express.  We usually stay at the more known and advertised hotels such as the Marriott, but his company set us up here.  We were actually quite impressed with the updated decor, the comfortable bed, the amenities and the cleanliness.  To top that off, breakfast was an added bonus as well.  You can make your own pancakes by pressing a button (which my husband did and I tasted) or get the usual breakfast items such as cereal, oatmeal, hardboiled eggs and pastries.  After this experience, we might look into staying at more Holiday Inn Express hotels.More</t>
   </si>
   <si>
+    <t>AmbrishSimi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r117142681-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1493,6 +1673,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>FL2NYCGGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r116430602-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1508,6 +1691,9 @@
     <t>After a recent renovation, this hotel has turned into a very nicely appointed, affordable place to stay when working in Plano. Friendly staff. Tue/Wed manager's reception. Very near several good restaurants and a mall.</t>
   </si>
   <si>
+    <t>PCJedi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r116392534-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1526,6 +1712,9 @@
     <t>This was my first visit to Plano for my upcoming surgery.  Initially, I booked this hotel because of the rates and availability for my trip.  While staying, I toured a few other hotels in the area.  This hotel is the best choice!  The rooms are clean.  The staff is professional, courteous and very helpful.  The breakfast is plentiful and great tasting.  The workout room is adequately stocked.  The floor space is more spacious than other local establishments.  I had a challenge with the Texas Tollway and my Rental Car company.  Not only did the hotel staff help me solve it, but they asked about it the next day.  I would not expect them to remember my individual challenges, much less check into them later!  Great work!Did not use the pool and there is not spa, so I did not rate those items.  Trip Advisor really should have a not available option in addition to not sure.More</t>
   </si>
   <si>
+    <t>anyold</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r114912099-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1544,6 +1733,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>Puglady55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r107691369-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1565,6 +1757,9 @@
     <t>The Holiday Inn Express N. Plano is very convenient to the freeway but was very quiet.  Never heard any traffic at all nor any neighbors.   The mall is just down the feeder road and there are lots of restaurants and shopping nearby.   The breakfast is an important consideration for us since we don't like to waste precious time in the morning.   Once again,  the Express came through with a great breakfast, properly stocked and maintained by a gracious hostess.  The only negative was it didn't have a frig.   Having stayed at lots of other chains in many cities over the years, we've decided that HIExpress is our favorite chain:  consistently clean, comfortable, good breakfast, reasonably priced.More</t>
   </si>
   <si>
+    <t>stevenwsmithii</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r97104726-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1586,6 +1781,9 @@
     <t>I believe my experience would have been better if their employees would have been able to drive to work.  One day my room didn't even get cleaned up, but they should have at least replaced my towels and trash.  I was also a bit disturbed with the breakfast attendant.  I'm allergic to poultry and asked what kind of meat was in the sausage.  She said she didn't know and then told me it was pork.  I can't be taking chances on being sick, but I believe there might have been a language barrier.  I had a 2 star experience, but I'm giving them the benefit of the doubt and giving them a 3 because the place has been completely redone and looks real nice!More</t>
   </si>
   <si>
+    <t>rico2081</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r96801984-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1610,6 +1808,9 @@
     <t>Bed bugs enough said, poor service from the staff!!!!!!!!!!!!!!!!!!!!!!!!!!More</t>
   </si>
   <si>
+    <t>langstonk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r87898569-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1637,6 +1838,9 @@
     <t>I stay at the Holiday inn in Plano every week.  They have had mechanical problems (elevator and ac in one room) but overall the staff is great and the hotel is clean.  The breakfast is very good.More</t>
   </si>
   <si>
+    <t>worldtravellerusa1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r32595178-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1655,6 +1859,9 @@
     <t>May 2009</t>
   </si>
   <si>
+    <t>wrkout4life</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r20043946-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1674,6 +1881,9 @@
   </si>
   <si>
     <t>This Holiday Inn Express is in a very upscale neighborhood, and convient to shopping, restuarants, and highways.  We stayed here for one night in September 2008.  Check in was quick and efficient.  Our requests of room type/location had been met.  The room was about average for size/ammenities.  We stayed in a king bedroom.  The bathroom was a bit small, but okay for one night.  The room had a small chair, and desk w/a chair.  Overall it was very clean, and nice.  We did not make it down for breakfast, but it was the usual breakfast items you can find at all Holiday inn expresses.  Overall we felt safe and the room was nice and clean.  There was a bit of noise from a group of High schoolers staying there, but other than that no complaints.Highly recommend for a weekend stay!More</t>
+  </si>
+  <si>
+    <t>wdharrington</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223650-r17211759-Holiday_Inn_Express_Dallas_North_Tollway_N_Plano-Plano_Texas.html</t>
@@ -2199,43 +2409,47 @@
       <c r="A2" t="n">
         <v>39249</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>97753</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2249,50 +2463,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39249</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155246</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2306,50 +2524,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39249</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>9687</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2365,56 +2587,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39249</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155247</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2432,50 +2658,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39249</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2491,56 +2721,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39249</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155249</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2554,50 +2788,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>39249</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>155250</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2615,56 +2853,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39249</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>322</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2684,50 +2926,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39249</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155251</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2747,7 +2993,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -2760,37 +3006,37 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2804,50 +3050,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39249</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>155252</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2867,50 +3117,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39249</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155253</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2922,56 +3176,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>39249</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155254</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2983,56 +3241,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>39249</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>36099</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3052,50 +3314,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>39249</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>20440</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="O16" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3107,56 +3373,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="X16" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>39249</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>50763</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3174,50 +3444,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>39249</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>118053</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3229,56 +3503,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="X18" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>39249</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155255</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3296,56 +3574,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="X19" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>39249</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>155256</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="O20" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3357,56 +3639,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="X20" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>39249</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>107644</v>
+      </c>
+      <c r="C21" t="s">
+        <v>208</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3418,56 +3704,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="X21" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>39249</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3479,56 +3769,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="X22" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>39249</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155257</v>
+      </c>
+      <c r="C23" t="s">
+        <v>227</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="J23" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3540,56 +3834,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="X23" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="Y23" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>39249</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>155258</v>
+      </c>
+      <c r="C24" t="s">
+        <v>236</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="J24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3605,56 +3903,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="X24" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="Y24" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>39249</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155259</v>
+      </c>
+      <c r="C25" t="s">
+        <v>246</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="K25" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3672,56 +3974,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="X25" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="Y25" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>39249</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155260</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="J26" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="K26" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3741,50 +4047,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>39249</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>25573</v>
+      </c>
+      <c r="C27" t="s">
+        <v>262</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="J27" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="O27" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3802,50 +4112,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>39249</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155261</v>
+      </c>
+      <c r="C28" t="s">
+        <v>270</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3865,50 +4179,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>39249</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155262</v>
+      </c>
+      <c r="C29" t="s">
+        <v>276</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="J29" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="O29" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3922,50 +4240,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>39249</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>18625</v>
+      </c>
+      <c r="C30" t="s">
+        <v>282</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="J30" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="K30" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3985,50 +4307,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>39249</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>155263</v>
+      </c>
+      <c r="C31" t="s">
+        <v>289</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="J31" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="K31" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="L31" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4044,56 +4370,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="X31" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="Y31" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>39249</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>155264</v>
+      </c>
+      <c r="C32" t="s">
+        <v>298</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="J32" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="K32" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="O32" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4109,47 +4439,51 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="X32" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="Y32" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>39249</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>155265</v>
+      </c>
+      <c r="C33" t="s">
+        <v>305</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="J33" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="K33" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
@@ -4176,56 +4510,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="X33" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="Y33" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>39249</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>154961</v>
+      </c>
+      <c r="C34" t="s">
+        <v>312</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="J34" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="K34" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="L34" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="O34" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4243,56 +4581,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="X34" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="Y34" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>39249</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>155266</v>
+      </c>
+      <c r="C35" t="s">
+        <v>319</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="J35" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="K35" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4304,56 +4646,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="X35" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="Y35" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>39249</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>7140</v>
+      </c>
+      <c r="C36" t="s">
+        <v>329</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="J36" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="O36" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4371,56 +4717,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="X36" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="Y36" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>39249</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>9541</v>
+      </c>
+      <c r="C37" t="s">
+        <v>338</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="J37" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="K37" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="L37" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4444,41 +4794,45 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>39249</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>64746</v>
+      </c>
+      <c r="C38" t="s">
+        <v>345</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="J38" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="K38" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
@@ -4507,50 +4861,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>39249</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>155267</v>
+      </c>
+      <c r="C39" t="s">
+        <v>351</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="J39" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="K39" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4574,50 +4932,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>39249</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>48607</v>
+      </c>
+      <c r="C40" t="s">
+        <v>358</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="J40" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="K40" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="L40" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4641,50 +5003,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>39249</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>155268</v>
+      </c>
+      <c r="C41" t="s">
+        <v>365</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="J41" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4708,50 +5074,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>39249</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>155269</v>
+      </c>
+      <c r="C42" t="s">
+        <v>372</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="J42" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="K42" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="L42" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="O42" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4773,56 +5143,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="X42" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Y42" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>39249</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>8114</v>
+      </c>
+      <c r="C43" t="s">
+        <v>382</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="J43" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="K43" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="L43" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4834,56 +5208,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="X43" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="Y43" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>39249</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>87492</v>
+      </c>
+      <c r="C44" t="s">
+        <v>392</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="J44" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="K44" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="L44" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4907,50 +5285,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>39249</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>61149</v>
+      </c>
+      <c r="C45" t="s">
+        <v>398</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="J45" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="K45" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="L45" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4974,50 +5356,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>39249</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>155270</v>
+      </c>
+      <c r="C46" t="s">
+        <v>405</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="J46" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="K46" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="L46" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5041,50 +5427,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>39249</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>155271</v>
+      </c>
+      <c r="C47" t="s">
+        <v>413</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="J47" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="K47" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="L47" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="O47" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5108,41 +5498,45 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>39249</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155272</v>
+      </c>
+      <c r="C48" t="s">
+        <v>421</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="J48" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="K48" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="L48" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
@@ -5169,56 +5563,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="X48" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="Y48" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>39249</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>155273</v>
+      </c>
+      <c r="C49" t="s">
+        <v>430</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="J49" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="K49" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="L49" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5242,50 +5640,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>39249</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155274</v>
+      </c>
+      <c r="C50" t="s">
+        <v>437</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="J50" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="K50" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="L50" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="O50" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P50" t="n">
         <v>2</v>
@@ -5309,7 +5711,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51">
@@ -5322,37 +5724,37 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="J51" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="K51" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="L51" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="O51" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5376,50 +5778,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>39249</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>654</v>
+      </c>
+      <c r="C52" t="s">
+        <v>449</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="J52" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="K52" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="L52" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5443,50 +5849,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>39249</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>118053</v>
+      </c>
+      <c r="C53" t="s">
+        <v>181</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="J53" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="K53" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="L53" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5508,47 +5918,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="X53" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="Y53" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>39249</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>155275</v>
+      </c>
+      <c r="C54" t="s">
+        <v>464</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="J54" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="K54" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="L54" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -5571,50 +5985,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>39249</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>155276</v>
+      </c>
+      <c r="C55" t="s">
+        <v>470</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="J55" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="K55" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="L55" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5638,50 +6056,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>39249</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>155277</v>
+      </c>
+      <c r="C56" t="s">
+        <v>477</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="J56" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="K56" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="L56" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="O56" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5705,50 +6127,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>39249</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>155278</v>
+      </c>
+      <c r="C57" t="s">
+        <v>485</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="J57" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="K57" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="L57" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5772,41 +6198,45 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>39249</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>155279</v>
+      </c>
+      <c r="C58" t="s">
+        <v>492</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="J58" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="K58" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="L58" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
@@ -5835,50 +6265,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>39249</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>155280</v>
+      </c>
+      <c r="C59" t="s">
+        <v>498</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="J59" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="K59" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="L59" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="O59" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5902,41 +6336,45 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>39249</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>155281</v>
+      </c>
+      <c r="C60" t="s">
+        <v>504</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="J60" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="K60" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="L60" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
@@ -5965,50 +6403,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>39249</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>111076</v>
+      </c>
+      <c r="C61" t="s">
+        <v>510</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="J61" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="K61" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="L61" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6032,50 +6474,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>39249</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>155282</v>
+      </c>
+      <c r="C62" t="s">
+        <v>518</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="J62" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="K62" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="L62" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="O62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6099,50 +6545,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>39249</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>155283</v>
+      </c>
+      <c r="C63" t="s">
+        <v>526</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="J63" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="K63" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="L63" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="O63" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6164,50 +6614,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>39249</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>155284</v>
+      </c>
+      <c r="C64" t="s">
+        <v>534</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="J64" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="K64" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="L64" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6227,50 +6681,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>39249</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>155285</v>
+      </c>
+      <c r="C65" t="s">
+        <v>541</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="J65" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="K65" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="L65" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="O65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6290,50 +6748,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>39249</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>155286</v>
+      </c>
+      <c r="C66" t="s">
+        <v>547</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="J66" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="K66" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="L66" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="O66" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6353,50 +6815,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>491</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>39249</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>155287</v>
+      </c>
+      <c r="C67" t="s">
+        <v>554</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="J67" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
       <c r="K67" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="L67" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="O67" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6416,50 +6882,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>39249</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>155288</v>
+      </c>
+      <c r="C68" t="s">
+        <v>561</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="J68" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="K68" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="L68" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
       <c r="O68" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6483,50 +6953,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>39249</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>155289</v>
+      </c>
+      <c r="C69" t="s">
+        <v>569</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>505</v>
+        <v>570</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="J69" t="s">
-        <v>507</v>
+        <v>572</v>
       </c>
       <c r="K69" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="L69" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
@@ -6550,50 +7024,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>39249</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>155290</v>
+      </c>
+      <c r="C70" t="s">
+        <v>577</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
       <c r="J70" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="K70" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="L70" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -6615,56 +7093,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="X70" t="s">
-        <v>518</v>
+        <v>584</v>
       </c>
       <c r="Y70" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>39249</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>155291</v>
+      </c>
+      <c r="C71" t="s">
+        <v>586</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>520</v>
+        <v>587</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>521</v>
+        <v>588</v>
       </c>
       <c r="J71" t="s">
-        <v>522</v>
+        <v>589</v>
       </c>
       <c r="K71" t="s">
-        <v>523</v>
+        <v>590</v>
       </c>
       <c r="L71" t="s">
-        <v>524</v>
+        <v>591</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>525</v>
+        <v>592</v>
       </c>
       <c r="O71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6686,56 +7168,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="X71" t="s">
-        <v>527</v>
+        <v>594</v>
       </c>
       <c r="Y71" t="s">
-        <v>528</v>
+        <v>595</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>39249</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>155292</v>
+      </c>
+      <c r="C72" t="s">
+        <v>596</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>529</v>
+        <v>597</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="J72" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="K72" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="L72" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="O72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -6749,50 +7235,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>39249</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>155293</v>
+      </c>
+      <c r="C73" t="s">
+        <v>603</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="J73" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="K73" t="s">
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="L73" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="O73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -6814,50 +7304,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>541</v>
+        <v>610</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>39249</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>155294</v>
+      </c>
+      <c r="C74" t="s">
+        <v>611</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>542</v>
+        <v>612</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>543</v>
+        <v>613</v>
       </c>
       <c r="J74" t="s">
-        <v>544</v>
+        <v>614</v>
       </c>
       <c r="K74" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="L74" t="s">
-        <v>546</v>
+        <v>616</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>547</v>
+        <v>617</v>
       </c>
       <c r="O74" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -6879,13 +7373,13 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="X74" t="s">
-        <v>527</v>
+        <v>594</v>
       </c>
       <c r="Y74" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
